--- a/monthly-budget.xlsx
+++ b/monthly-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Learning Excel\excel-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDA68C5-0BF6-459B-AFC5-A884E4A25A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8454BF-9EBC-47C7-8C32-C8AB1A232081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7BDB811D-95D9-48C3-9726-37E9EF4607BC}"/>
   </bookViews>
@@ -90,7 +90,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +110,53 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,17 +164,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="for-budget" xfId="3" xr:uid="{17670243-3C9C-4F23-98F7-835E9641B2D4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -443,301 +520,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D46F3BD-4151-4600-925F-A8361B6312C9}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" ht="37.5" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="1">
         <v>300</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="1">
         <v>350</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="1">
         <v>325</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="1">
         <v>310</v>
       </c>
-      <c r="F4">
-        <f>SUM(B4:E4)</f>
+      <c r="G5" s="1">
+        <f>SUM(C5:F5)</f>
         <v>1285</v>
       </c>
-      <c r="G4">
-        <f>F4/$F$9</f>
+      <c r="H5" s="3">
+        <f>G5/$G$10</f>
         <v>0.19528875379939209</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="2">
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="2">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="2">
         <v>50</v>
       </c>
-      <c r="F5">
-        <f>SUM(B5:E5)</f>
+      <c r="G6" s="2">
+        <f>SUM(C6:F6)</f>
         <v>200</v>
       </c>
-      <c r="G5">
-        <f>F5/$F$9</f>
+      <c r="H6" s="3">
+        <f>G6/$G$10</f>
         <v>3.0395136778115502E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C7" s="2">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="D7" s="2">
         <v>175</v>
       </c>
-      <c r="D6">
+      <c r="E7" s="2">
         <v>175</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="2">
         <v>210</v>
       </c>
-      <c r="F6">
-        <f>SUM(B6:E6)</f>
+      <c r="G7" s="2">
+        <f>SUM(C7:F7)</f>
         <v>710</v>
       </c>
-      <c r="G6">
-        <f>F6/$F$9</f>
+      <c r="H7" s="3">
+        <f>G7/$G$10</f>
         <v>0.10790273556231003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="C7">
+      <c r="D8" s="2">
         <v>110</v>
       </c>
-      <c r="D7">
+      <c r="E8" s="2">
         <v>80</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="2">
         <v>95</v>
       </c>
-      <c r="F7">
-        <f>SUM(B7:E7)</f>
+      <c r="G8" s="2">
+        <f>SUM(C8:F8)</f>
         <v>385</v>
       </c>
-      <c r="G7">
-        <f>F7/$F$9</f>
+      <c r="H8" s="3">
+        <f>G8/$G$10</f>
         <v>5.8510638297872342E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C9" s="2">
         <v>1000</v>
       </c>
-      <c r="C8">
+      <c r="D9" s="2">
         <v>1000</v>
       </c>
-      <c r="D8">
+      <c r="E9" s="2">
         <v>1000</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="2">
         <v>1000</v>
       </c>
-      <c r="F8">
-        <f>SUM(B8:E8)</f>
+      <c r="G9" s="2">
+        <f>SUM(C9:F9)</f>
         <v>4000</v>
       </c>
-      <c r="G8">
-        <f>F8/$F$9</f>
+      <c r="H9" s="3">
+        <f>G9/$G$10</f>
         <v>0.60790273556231</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:E9" si="0">SUM(B4:B8)</f>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:F10" si="0">SUM(C5:C9)</f>
         <v>1600</v>
       </c>
-      <c r="C9">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>1685</v>
       </c>
-      <c r="D9">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>1630</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>1665</v>
       </c>
-      <c r="F9">
-        <f>SUM(F4:F8)</f>
+      <c r="G10" s="1">
+        <f>SUM(G5:G9)</f>
         <v>6580</v>
       </c>
-      <c r="G9">
-        <f>F9/$F$9</f>
+      <c r="H10" s="3">
+        <f>G10/$G$10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>MIN(B4:B8)</f>
+      <c r="C12">
+        <f>MIN(C5:C9)</f>
         <v>50</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:F11" si="1">MIN(C4:C8)</f>
+      <c r="D12">
+        <f t="shared" ref="D12:G12" si="1">MIN(D5:D9)</f>
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>MAX(B4:B8)</f>
+      <c r="C13">
+        <f>MAX(C5:C9)</f>
         <v>1000</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:F12" si="2">MAX(C4:C8)</f>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="2">MAX(D5:D9)</f>
         <v>1000</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>AVERAGE(B4:B8)</f>
+      <c r="C14">
+        <f>AVERAGE(C5:C9)</f>
         <v>320</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:F13" si="3">AVERAGE(C4:C8)</f>
+      <c r="D14">
+        <f t="shared" ref="D14:G14" si="3">AVERAGE(D5:D9)</f>
         <v>337</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <f t="shared" si="3"/>
         <v>1316</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <f>COUNT(B4:B8)</f>
+      <c r="C15">
+        <f>COUNT(C5:C9)</f>
         <v>5</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:F14" si="4">COUNT(C4:C8)</f>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="4">COUNT(D5:D9)</f>
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C5:F9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/monthly-budget.xlsx
+++ b/monthly-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Learning Excel\excel-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8454BF-9EBC-47C7-8C32-C8AB1A232081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3F309-FC45-45F5-AD1F-A092A8DCC4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7BDB811D-95D9-48C3-9726-37E9EF4607BC}"/>
   </bookViews>
@@ -221,6 +221,1287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly-budget'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>June-2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hobbies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly-budget'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9231-4DE2-8896-44FAC0F64EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly-budget'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July-2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hobbies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly-budget'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9231-4DE2-8896-44FAC0F64EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly-budget'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aug-2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hobbies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly-budget'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9231-4DE2-8896-44FAC0F64EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly-budget'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sept-2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hobbies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly-budget'!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9231-4DE2-8896-44FAC0F64EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="715123184"/>
+        <c:axId val="715124496"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="715123184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715124496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715124496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715123184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340071</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>720725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>434138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA82393B-A6FF-18A3-328B-6B6AA969F107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5978871" y="241299"/>
+          <a:ext cx="380654" cy="376989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67021</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>440488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FAEF62-7114-463B-ABDC-1F5514F45B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="676621" y="247649"/>
+          <a:ext cx="380654" cy="376989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6107517-E638-84F4-41B4-D66282DE44C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D46F3BD-4151-4600-925F-A8361B6312C9}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +1869,7 @@
         <v>1285</v>
       </c>
       <c r="H5" s="3">
-        <f>G5/$G$10</f>
+        <f t="shared" ref="H5:H10" si="0">G5/$G$10</f>
         <v>0.19528875379939209</v>
       </c>
     </row>
@@ -613,7 +1894,7 @@
         <v>200</v>
       </c>
       <c r="H6" s="3">
-        <f>G6/$G$10</f>
+        <f t="shared" si="0"/>
         <v>3.0395136778115502E-2</v>
       </c>
     </row>
@@ -638,7 +1919,7 @@
         <v>710</v>
       </c>
       <c r="H7" s="3">
-        <f>G7/$G$10</f>
+        <f t="shared" si="0"/>
         <v>0.10790273556231003</v>
       </c>
     </row>
@@ -663,7 +1944,7 @@
         <v>385</v>
       </c>
       <c r="H8" s="3">
-        <f>G8/$G$10</f>
+        <f t="shared" si="0"/>
         <v>5.8510638297872342E-2</v>
       </c>
     </row>
@@ -688,7 +1969,7 @@
         <v>4000</v>
       </c>
       <c r="H9" s="3">
-        <f>G9/$G$10</f>
+        <f t="shared" si="0"/>
         <v>0.60790273556231</v>
       </c>
     </row>
@@ -697,19 +1978,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:F10" si="0">SUM(C5:C9)</f>
+        <f t="shared" ref="C10:F10" si="1">SUM(C5:C9)</f>
         <v>1600</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1685</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1630</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1665</v>
       </c>
       <c r="G10" s="1">
@@ -717,7 +1998,7 @@
         <v>6580</v>
       </c>
       <c r="H10" s="3">
-        <f>G10/$G$10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -733,19 +2014,19 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:G12" si="1">MIN(D5:D9)</f>
+        <f t="shared" ref="D12:G12" si="2">MIN(D5:D9)</f>
         <v>50</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -758,19 +2039,19 @@
         <v>1000</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:G13" si="2">MAX(D5:D9)</f>
+        <f t="shared" ref="D13:G13" si="3">MAX(D5:D9)</f>
         <v>1000</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
@@ -783,19 +2064,19 @@
         <v>320</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:G14" si="3">AVERAGE(D5:D9)</f>
+        <f t="shared" ref="D14:G14" si="4">AVERAGE(D5:D9)</f>
         <v>337</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>326</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>333</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1316</v>
       </c>
     </row>
@@ -808,19 +2089,19 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:G15" si="4">COUNT(D5:D9)</f>
+        <f t="shared" ref="D15:G15" si="5">COUNT(D5:D9)</f>
         <v>5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -836,5 +2117,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/monthly-budget.xlsx
+++ b/monthly-budget.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Learning Excel\excel-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3F309-FC45-45F5-AD1F-A092A8DCC4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4151A50B-ED13-4258-8233-D07BF05E0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7BDB811D-95D9-48C3-9726-37E9EF4607BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7BDB811D-95D9-48C3-9726-37E9EF4607BC}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly-budget" sheetId="1" r:id="rId1"/>
+    <sheet name="chart-monthly-budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -268,6 +269,1173 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly-budget'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July-2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="tr-TR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.10720253718285214"/>
+                      <c:h val="0.14913823272090987"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2222222222222223E-2"/>
+                  <c:y val="-4.6296296296296384E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7222112860892389E-2"/>
+                  <c:y val="-2.777759550889472E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="tr-TR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.10093241469816272"/>
+                      <c:h val="0.15376786235053949"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hobbies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly-budget'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>June-2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="25000"/>
+                          <a:lumOff val="75000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1">
+                              <a:lumMod val="65000"/>
+                              <a:lumOff val="35000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="tr-TR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="1"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                        <a:prstGeom prst="wedgeRectCallout">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                      </c15:spPr>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$B$5:$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Food</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Water</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Credit Cards</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Hobbies</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Rent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$C$5:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$E$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Aug-2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="25000"/>
+                          <a:lumOff val="75000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1">
+                              <a:lumMod val="65000"/>
+                              <a:lumOff val="35000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="tr-TR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="1"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                        <a:prstGeom prst="wedgeRectCallout">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                      </c15:spPr>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$B$5:$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Food</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Water</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Credit Cards</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Hobbies</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Rent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$E$5:$E$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                        <c:v>325</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$F$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Sept-2022</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="25000"/>
+                          <a:lumOff val="75000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1">
+                              <a:lumMod val="65000"/>
+                              <a:lumOff val="35000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="tr-TR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="1"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                        <a:prstGeom prst="wedgeRectCallout">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:noFill/>
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                      </c15:spPr>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$B$5:$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Food</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Water</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Credit Cards</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Hobbies</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Rent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'monthly-budget'!$F$5:$F$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'monthly-budget'!$B$2:$H$2</c:f>
+          <c:strCache>
+            <c:ptCount val="7"/>
+            <c:pt idx="0">
+              <c:v>Monthly Budget</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -328,9 +1496,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -387,7 +1578,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9231-4DE2-8896-44FAC0F64EF8}"/>
+              <c16:uniqueId val="{00000000-0C6F-48DC-84DB-DE7C19E4C090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -406,9 +1597,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -465,7 +1679,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9231-4DE2-8896-44FAC0F64EF8}"/>
+              <c16:uniqueId val="{00000001-0C6F-48DC-84DB-DE7C19E4C090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -484,9 +1698,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -543,7 +1780,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9231-4DE2-8896-44FAC0F64EF8}"/>
+              <c16:uniqueId val="{00000002-0C6F-48DC-84DB-DE7C19E4C090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -562,9 +1799,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -621,7 +1881,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9231-4DE2-8896-44FAC0F64EF8}"/>
+              <c16:uniqueId val="{00000003-0C6F-48DC-84DB-DE7C19E4C090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,8 +1912,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -662,12 +1928,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -695,7 +1958,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -721,12 +1984,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -749,7 +2009,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -763,12 +2023,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -796,7 +2053,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -815,11 +2072,6 @@
       <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -863,8 +2115,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -887,6 +2179,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -910,7 +2213,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -961,6 +2264,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -971,12 +2281,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1014,7 +2331,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1355,6 +2672,485 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="290">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FB7CC2DB-AD80-44A9-9EDF-3BF6A677EBEF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="60" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,22 +3264,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6107517-E638-84F4-41B4-D66282DE44C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A28DA3-98D6-3A82-AB5A-8D0E286EACD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,6 +3297,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307015" cy="6084627"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4365057-42F1-D24A-F633-570106A924FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1804,7 +3633,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/monthly-budget.xlsx
+++ b/monthly-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\Learning Excel\excel-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4151A50B-ED13-4258-8233-D07BF05E0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFA40EC-880F-4FF5-A626-B16A36434C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7BDB811D-95D9-48C3-9726-37E9EF4607BC}"/>
   </bookViews>
@@ -181,17 +181,18 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -278,7 +279,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'monthly-budget'!$D$4</c:f>
+              <c:f>'monthly-budget'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -303,7 +304,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                <c16:uniqueId val="{00000001-E966-4A2B-BC16-1E1D0746C380}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -323,7 +324,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                <c16:uniqueId val="{00000003-E966-4A2B-BC16-1E1D0746C380}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -341,6 +342,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E966-4A2B-BC16-1E1D0746C380}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -356,6 +362,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E966-4A2B-BC16-1E1D0746C380}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -373,7 +384,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                <c16:uniqueId val="{00000009-E966-4A2B-BC16-1E1D0746C380}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -442,7 +453,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                  <c16:uniqueId val="{00000001-E966-4A2B-BC16-1E1D0746C380}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -464,7 +475,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                  <c16:uniqueId val="{00000003-E966-4A2B-BC16-1E1D0746C380}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -538,7 +549,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                  <c16:uniqueId val="{00000009-E966-4A2B-BC16-1E1D0746C380}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -602,7 +613,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:f>'monthly-budget'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -625,7 +636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'monthly-budget'!$D$5:$D$9</c:f>
+              <c:f>'monthly-budget'!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -649,7 +660,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+              <c16:uniqueId val="{0000000A-E966-4A2B-BC16-1E1D0746C380}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -674,7 +685,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$C$4</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$B$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -700,6 +711,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000C-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -715,6 +731,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000E-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -730,6 +751,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000010-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -745,6 +771,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000012-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -760,6 +791,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000014-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -825,7 +861,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$B$5:$B$9</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -854,7 +890,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$C$5:$C$9</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$B$4:$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -881,7 +917,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                    <c16:uniqueId val="{00000015-E966-4A2B-BC16-1E1D0746C380}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -892,10 +928,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$E$4</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$D$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -921,6 +957,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000017-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -936,6 +977,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000019-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -951,6 +997,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001B-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -966,6 +1017,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001D-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -981,6 +1037,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001F-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -1027,7 +1088,7 @@
                   <c:showPercent val="1"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <a:prstGeom prst="wedgeRectCallout">
@@ -1043,10 +1104,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$B$5:$B$9</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1072,10 +1133,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$E$5:$E$9</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$D$4:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1100,9 +1161,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                    <c16:uniqueId val="{00000020-E966-4A2B-BC16-1E1D0746C380}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1113,10 +1174,10 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$F$4</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$E$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1142,6 +1203,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000022-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1157,6 +1223,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000024-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1172,6 +1243,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000026-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1187,6 +1263,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000028-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1202,6 +1283,11 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002A-E966-4A2B-BC16-1E1D0746C380}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -1248,7 +1334,7 @@
                   <c:showPercent val="1"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <a:prstGeom prst="wedgeRectCallout">
@@ -1264,10 +1350,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$B$5:$B$9</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1293,10 +1379,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'monthly-budget'!$F$5:$F$9</c15:sqref>
+                          <c15:sqref>'monthly-budget'!$E$4:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1321,9 +1407,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-C7C1-4F85-9FA6-1CAFB772E7EF}"/>
+                    <c16:uniqueId val="{0000002B-E966-4A2B-BC16-1E1D0746C380}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1400,7 +1486,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'monthly-budget'!$B$2:$H$2</c:f>
+          <c:f>'monthly-budget'!$A$1:$G$1</c:f>
           <c:strCache>
             <c:ptCount val="7"/>
             <c:pt idx="0">
@@ -1486,7 +1572,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'monthly-budget'!$C$4</c:f>
+              <c:f>'monthly-budget'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1531,7 +1617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:f>'monthly-budget'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1554,7 +1640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'monthly-budget'!$C$5:$C$9</c:f>
+              <c:f>'monthly-budget'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1587,7 +1673,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'monthly-budget'!$D$4</c:f>
+              <c:f>'monthly-budget'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1632,7 +1718,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:f>'monthly-budget'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1655,7 +1741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'monthly-budget'!$D$5:$D$9</c:f>
+              <c:f>'monthly-budget'!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1688,7 +1774,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'monthly-budget'!$E$4</c:f>
+              <c:f>'monthly-budget'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1733,7 +1819,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:f>'monthly-budget'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1756,7 +1842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'monthly-budget'!$E$5:$E$9</c:f>
+              <c:f>'monthly-budget'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1789,7 +1875,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'monthly-budget'!$F$4</c:f>
+              <c:f>'monthly-budget'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1834,7 +1920,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'monthly-budget'!$B$5:$B$9</c:f>
+              <c:f>'monthly-budget'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1857,7 +1943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'monthly-budget'!$F$5:$F$9</c:f>
+              <c:f>'monthly-budget'!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3157,15 +3243,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>340071</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>720725</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>434138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3210,15 +3296,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>67021</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>440488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3251,7 +3337,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="676621" y="247649"/>
+          <a:off x="691438" y="243416"/>
           <a:ext cx="380654" cy="376989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3263,27 +3349,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A28DA3-98D6-3A82-AB5A-8D0E286EACD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC24C0C-24B7-4455-819F-5A2C276BDA4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3630,10 +3718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D46F3BD-4151-4600-925F-A8361B6312C9}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3643,309 +3731,329 @@
     <col min="8" max="8" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="37.5" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:7" ht="37.5" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B4" s="4">
         <v>300</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C4" s="4">
         <v>350</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D4" s="4">
         <v>325</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E4" s="4">
         <v>310</v>
       </c>
-      <c r="G5" s="1">
-        <f>SUM(C5:F5)</f>
+      <c r="F4" s="4">
+        <f>SUM(B4:E4)</f>
         <v>1285</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" ref="H5:H10" si="0">G5/$G$10</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G9" si="0">F4/$F$9</f>
         <v>0.19528875379939209</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B5" s="6">
         <v>50</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D5" s="6">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E5" s="6">
         <v>50</v>
       </c>
-      <c r="G6" s="2">
-        <f>SUM(C6:F6)</f>
+      <c r="F5" s="6">
+        <f>SUM(B5:E5)</f>
         <v>200</v>
       </c>
-      <c r="H6" s="3">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>3.0395136778115502E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B6" s="6">
         <v>150</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C6" s="6">
         <v>175</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D6" s="6">
         <v>175</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E6" s="6">
         <v>210</v>
       </c>
-      <c r="G7" s="2">
-        <f>SUM(C7:F7)</f>
+      <c r="F6" s="6">
+        <f>SUM(B6:E6)</f>
         <v>710</v>
       </c>
-      <c r="H7" s="3">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>0.10790273556231003</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B7" s="6">
         <v>100</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C7" s="6">
         <v>110</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D7" s="6">
         <v>80</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E7" s="6">
         <v>95</v>
       </c>
-      <c r="G8" s="2">
-        <f>SUM(C8:F8)</f>
+      <c r="F7" s="6">
+        <f>SUM(B7:E7)</f>
         <v>385</v>
       </c>
-      <c r="H8" s="3">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>5.8510638297872342E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B8" s="6">
         <v>1000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C8" s="6">
         <v>1000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D8" s="6">
         <v>1000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E8" s="6">
         <v>1000</v>
       </c>
-      <c r="G9" s="2">
-        <f>SUM(C9:F9)</f>
+      <c r="F8" s="6">
+        <f>SUM(B8:E8)</f>
         <v>4000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>0.60790273556231</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:F10" si="1">SUM(C5:C9)</f>
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:E9" si="1">SUM(B4:B8)</f>
         <v>1600</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>1685</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>1630</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>1665</v>
       </c>
-      <c r="G10" s="1">
-        <f>SUM(G5:G9)</f>
+      <c r="F9" s="4">
+        <f>SUM(F4:F8)</f>
         <v>6580</v>
       </c>
-      <c r="H10" s="3">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H11" s="3"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <f>MIN(C5:C9)</f>
+      <c r="B11" s="2">
+        <f>MIN(B4:B8)</f>
         <v>50</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:G12" si="2">MIN(D5:D9)</f>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:F11" si="2">MIN(C4:C8)</f>
         <v>50</v>
       </c>
-      <c r="E12">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F12">
+      <c r="E11" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G12">
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
+      <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <f>MAX(C5:C9)</f>
+      <c r="B12" s="2">
+        <f>MAX(B4:B8)</f>
         <v>1000</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:G13" si="3">MAX(D5:D9)</f>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:F12" si="3">MAX(C4:C8)</f>
         <v>1000</v>
       </c>
-      <c r="E13">
+      <c r="D12" s="2">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="F13">
+      <c r="E12" s="2">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="G13">
+      <c r="F12" s="2">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
+      <c r="G12" s="2"/>
     </row>
-    <row r="14" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
-        <f>AVERAGE(C5:C9)</f>
+      <c r="B13" s="2">
+        <f>AVERAGE(B4:B8)</f>
         <v>320</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14:G14" si="4">AVERAGE(D5:D9)</f>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:F13" si="4">AVERAGE(C4:C8)</f>
         <v>337</v>
       </c>
-      <c r="E14">
+      <c r="D13" s="2">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
-      <c r="F14">
+      <c r="E13" s="2">
         <f t="shared" si="4"/>
         <v>333</v>
       </c>
-      <c r="G14">
+      <c r="F13" s="2">
         <f t="shared" si="4"/>
         <v>1316</v>
       </c>
+      <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <f>COUNT(C5:C9)</f>
+      <c r="B14" s="2">
+        <f>COUNT(B4:B8)</f>
         <v>5</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15:G15" si="5">COUNT(D5:D9)</f>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:F14" si="5">COUNT(C4:C8)</f>
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="D14" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="E14" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="F14" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:F9">
+  <conditionalFormatting sqref="B4:E8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CMonthly Budget&amp;RSteve</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>